--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3933726666666666</v>
+        <v>0.8006189999999999</v>
       </c>
       <c r="H2">
-        <v>1.180118</v>
+        <v>2.401857</v>
       </c>
       <c r="I2">
-        <v>0.446441967401646</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="J2">
-        <v>0.4464419674016459</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N2">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q2">
-        <v>9.500542581484444</v>
+        <v>22.161991382949</v>
       </c>
       <c r="R2">
-        <v>85.50488323336</v>
+        <v>199.457922446541</v>
       </c>
       <c r="S2">
-        <v>0.02573732011510412</v>
+        <v>0.009784740595954949</v>
       </c>
       <c r="T2">
-        <v>0.02573732011510411</v>
+        <v>0.009784740595954949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3933726666666666</v>
+        <v>0.8006189999999999</v>
       </c>
       <c r="H3">
-        <v>1.180118</v>
+        <v>2.401857</v>
       </c>
       <c r="I3">
-        <v>0.446441967401646</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="J3">
-        <v>0.4464419674016459</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P3">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q3">
-        <v>0.03823739669066666</v>
+        <v>0.07782336927599999</v>
       </c>
       <c r="R3">
-        <v>0.344136570216</v>
+        <v>0.7004103234839999</v>
       </c>
       <c r="S3">
-        <v>0.0001035865173546901</v>
+        <v>3.435979499814891E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001035865173546901</v>
+        <v>3.435979499814891E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3933726666666666</v>
+        <v>0.8006189999999999</v>
       </c>
       <c r="H4">
-        <v>1.180118</v>
+        <v>2.401857</v>
       </c>
       <c r="I4">
-        <v>0.446441967401646</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="J4">
-        <v>0.4464419674016459</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N4">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O4">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P4">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q4">
-        <v>62.76347845138421</v>
+        <v>217.981875206809</v>
       </c>
       <c r="R4">
-        <v>564.871306062458</v>
+        <v>1961.836876861281</v>
       </c>
       <c r="S4">
-        <v>0.1700285770613658</v>
+        <v>0.09624117556328705</v>
       </c>
       <c r="T4">
-        <v>0.1700285770613657</v>
+        <v>0.09624117556328705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3933726666666666</v>
+        <v>0.8006189999999999</v>
       </c>
       <c r="H5">
-        <v>1.180118</v>
+        <v>2.401857</v>
       </c>
       <c r="I5">
-        <v>0.446441967401646</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="J5">
-        <v>0.4464419674016459</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N5">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O5">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P5">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q5">
-        <v>3.810139726986222</v>
+        <v>9.395396334007998</v>
       </c>
       <c r="R5">
-        <v>34.291257542876</v>
+        <v>84.55856700607198</v>
       </c>
       <c r="S5">
-        <v>0.01032180899097635</v>
+        <v>0.004148161342359544</v>
       </c>
       <c r="T5">
-        <v>0.01032180899097635</v>
+        <v>0.004148161342359544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3933726666666666</v>
+        <v>0.8006189999999999</v>
       </c>
       <c r="H6">
-        <v>1.180118</v>
+        <v>2.401857</v>
       </c>
       <c r="I6">
-        <v>0.446441967401646</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="J6">
-        <v>0.4464419674016459</v>
+        <v>0.1939183049917479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N6">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O6">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P6">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q6">
-        <v>88.68490406809089</v>
+        <v>189.59903416291</v>
       </c>
       <c r="R6">
-        <v>798.1641366128181</v>
+        <v>1706.39130746619</v>
       </c>
       <c r="S6">
-        <v>0.2402506747168451</v>
+        <v>0.08370986769514817</v>
       </c>
       <c r="T6">
-        <v>0.240250674716845</v>
+        <v>0.08370986769514818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.600255</v>
       </c>
       <c r="I7">
-        <v>0.2270781592541382</v>
+        <v>0.04846268206759254</v>
       </c>
       <c r="J7">
-        <v>0.2270781592541381</v>
+        <v>0.04846268206759255</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N7">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q7">
-        <v>4.832354211399999</v>
+        <v>5.538567091035</v>
       </c>
       <c r="R7">
-        <v>43.4911879026</v>
+        <v>49.847103819315</v>
       </c>
       <c r="S7">
-        <v>0.01309102571581132</v>
+        <v>0.002445332701499272</v>
       </c>
       <c r="T7">
-        <v>0.01309102571581132</v>
+        <v>0.002445332701499272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.600255</v>
       </c>
       <c r="I8">
-        <v>0.2270781592541382</v>
+        <v>0.04846268206759254</v>
       </c>
       <c r="J8">
-        <v>0.2270781592541381</v>
+        <v>0.04846268206759255</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P8">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q8">
         <v>0.01944906234</v>
@@ -948,10 +948,10 @@
         <v>0.17504156106</v>
       </c>
       <c r="S8">
-        <v>5.268822691861281E-05</v>
+        <v>8.586955321076098E-06</v>
       </c>
       <c r="T8">
-        <v>5.268822691861279E-05</v>
+        <v>8.586955321076098E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.600255</v>
       </c>
       <c r="I9">
-        <v>0.2270781592541382</v>
+        <v>0.04846268206759254</v>
       </c>
       <c r="J9">
-        <v>0.2270781592541381</v>
+        <v>0.04846268206759255</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N9">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O9">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P9">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q9">
-        <v>31.92400400454499</v>
+        <v>54.476478200935</v>
       </c>
       <c r="R9">
-        <v>287.316036040905</v>
+        <v>490.288303808415</v>
       </c>
       <c r="S9">
-        <v>0.08648330380857687</v>
+        <v>0.02405190935086513</v>
       </c>
       <c r="T9">
-        <v>0.08648330380857684</v>
+        <v>0.02405190935086513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1042,10 +1042,10 @@
         <v>0.600255</v>
       </c>
       <c r="I10">
-        <v>0.2270781592541382</v>
+        <v>0.04846268206759254</v>
       </c>
       <c r="J10">
-        <v>0.2270781592541381</v>
+        <v>0.04846268206759255</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N10">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O10">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P10">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q10">
-        <v>1.93798876199</v>
+        <v>2.34803055572</v>
       </c>
       <c r="R10">
-        <v>17.44189885791</v>
+        <v>21.13227500148</v>
       </c>
       <c r="S10">
-        <v>0.00525008300515585</v>
+        <v>0.001036678947396963</v>
       </c>
       <c r="T10">
-        <v>0.005250083005155847</v>
+        <v>0.001036678947396963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.600255</v>
       </c>
       <c r="I11">
-        <v>0.2270781592541382</v>
+        <v>0.04846268206759254</v>
       </c>
       <c r="J11">
-        <v>0.2270781592541381</v>
+        <v>0.04846268206759255</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N11">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O11">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P11">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q11">
-        <v>45.108673108445</v>
+        <v>47.38324065565</v>
       </c>
       <c r="R11">
-        <v>405.978057976005</v>
+        <v>426.44916590085</v>
       </c>
       <c r="S11">
-        <v>0.1222010584976755</v>
+        <v>0.0209201741125101</v>
       </c>
       <c r="T11">
-        <v>0.1222010584976755</v>
+        <v>0.0209201741125101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2876706666666667</v>
+        <v>1.309553333333333</v>
       </c>
       <c r="H12">
-        <v>0.8630120000000001</v>
+        <v>3.92866</v>
       </c>
       <c r="I12">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="J12">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N12">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q12">
-        <v>6.947680023804445</v>
+        <v>36.24983879828667</v>
       </c>
       <c r="R12">
-        <v>62.52912021424001</v>
+        <v>326.24854918458</v>
       </c>
       <c r="S12">
-        <v>0.01882152132852498</v>
+        <v>0.01600466596875017</v>
       </c>
       <c r="T12">
-        <v>0.01882152132852497</v>
+        <v>0.01600466596875017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2876706666666667</v>
+        <v>1.309553333333333</v>
       </c>
       <c r="H13">
-        <v>0.8630120000000001</v>
+        <v>3.92866</v>
       </c>
       <c r="I13">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="J13">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.291612</v>
       </c>
       <c r="O13">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P13">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q13">
-        <v>0.02796273948266667</v>
+        <v>0.1272938222133333</v>
       </c>
       <c r="R13">
-        <v>0.251664655344</v>
+        <v>1.14564439992</v>
       </c>
       <c r="S13">
-        <v>7.575209217663474E-05</v>
+        <v>5.620149418446964E-05</v>
       </c>
       <c r="T13">
-        <v>7.575209217663472E-05</v>
+        <v>5.620149418446964E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2876706666666667</v>
+        <v>1.309553333333333</v>
       </c>
       <c r="H14">
-        <v>0.8630120000000001</v>
+        <v>3.92866</v>
       </c>
       <c r="I14">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="J14">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N14">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O14">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P14">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q14">
-        <v>45.89849071473022</v>
+        <v>356.5477352939756</v>
       </c>
       <c r="R14">
-        <v>413.086416432572</v>
+        <v>3208.92961764578</v>
       </c>
       <c r="S14">
-        <v>0.1243407035117534</v>
+        <v>0.157419387077775</v>
       </c>
       <c r="T14">
-        <v>0.1243407035117534</v>
+        <v>0.157419387077775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2876706666666667</v>
+        <v>1.309553333333333</v>
       </c>
       <c r="H15">
-        <v>0.8630120000000001</v>
+        <v>3.92866</v>
       </c>
       <c r="I15">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="J15">
-        <v>0.3264798733442159</v>
+        <v>0.3171875295194012</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N15">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O15">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P15">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q15">
-        <v>2.786328406198223</v>
+        <v>15.36782487948444</v>
       </c>
       <c r="R15">
-        <v>25.076955655784</v>
+        <v>138.31042391536</v>
       </c>
       <c r="S15">
-        <v>0.007548266377532149</v>
+        <v>0.006785048210311542</v>
       </c>
       <c r="T15">
-        <v>0.007548266377532147</v>
+        <v>0.006785048210311541</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.309553333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.92866</v>
+      </c>
+      <c r="I16">
+        <v>0.3171875295194012</v>
+      </c>
+      <c r="J16">
+        <v>0.3171875295194012</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>236.8155566666667</v>
+      </c>
+      <c r="N16">
+        <v>710.44667</v>
+      </c>
+      <c r="O16">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="P16">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="Q16">
+        <v>310.1226016180223</v>
+      </c>
+      <c r="R16">
+        <v>2791.1034145622</v>
+      </c>
+      <c r="S16">
+        <v>0.13692222676838</v>
+      </c>
+      <c r="T16">
+        <v>0.13692222676838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.818383333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.45515</v>
+      </c>
+      <c r="I17">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="J17">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.681071</v>
+      </c>
+      <c r="N17">
+        <v>83.04321300000001</v>
+      </c>
+      <c r="O17">
+        <v>0.05045805550111082</v>
+      </c>
+      <c r="P17">
+        <v>0.05045805550111081</v>
+      </c>
+      <c r="Q17">
+        <v>50.33479815521667</v>
+      </c>
+      <c r="R17">
+        <v>453.01318339695</v>
+      </c>
+      <c r="S17">
+        <v>0.02222331623490643</v>
+      </c>
+      <c r="T17">
+        <v>0.02222331623490642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.818383333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.45515</v>
+      </c>
+      <c r="I18">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="J18">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.097204</v>
+      </c>
+      <c r="N18">
+        <v>0.291612</v>
+      </c>
+      <c r="O18">
+        <v>0.0001771869602491167</v>
+      </c>
+      <c r="P18">
+        <v>0.0001771869602491166</v>
+      </c>
+      <c r="Q18">
+        <v>0.1767541335333333</v>
+      </c>
+      <c r="R18">
+        <v>1.5907872018</v>
+      </c>
+      <c r="S18">
+        <v>7.8038715745422E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.803871574542198E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.2876706666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.8630120000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.3264798733442159</v>
-      </c>
-      <c r="J16">
-        <v>0.3264798733442159</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>225.4475503333333</v>
-      </c>
-      <c r="N16">
-        <v>676.342651</v>
-      </c>
-      <c r="O16">
-        <v>0.5381453632487493</v>
-      </c>
-      <c r="P16">
-        <v>0.5381453632487492</v>
-      </c>
-      <c r="Q16">
-        <v>64.8546471027569</v>
-      </c>
-      <c r="R16">
-        <v>583.6918239248121</v>
-      </c>
-      <c r="S16">
-        <v>0.1756936300342287</v>
-      </c>
-      <c r="T16">
-        <v>0.1756936300342287</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.818383333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.45515</v>
+      </c>
+      <c r="I19">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="J19">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>272.2666776666667</v>
+      </c>
+      <c r="N19">
+        <v>816.800033</v>
+      </c>
+      <c r="O19">
+        <v>0.4962975288350554</v>
+      </c>
+      <c r="P19">
+        <v>0.4962975288350553</v>
+      </c>
+      <c r="Q19">
+        <v>495.0851888911055</v>
+      </c>
+      <c r="R19">
+        <v>4455.76670001995</v>
+      </c>
+      <c r="S19">
+        <v>0.2185850568431282</v>
+      </c>
+      <c r="T19">
+        <v>0.2185850568431282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.818383333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.45515</v>
+      </c>
+      <c r="I20">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="J20">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.73516533333333</v>
+      </c>
+      <c r="N20">
+        <v>35.205496</v>
+      </c>
+      <c r="O20">
+        <v>0.02139128300722342</v>
+      </c>
+      <c r="P20">
+        <v>0.02139128300722341</v>
+      </c>
+      <c r="Q20">
+        <v>21.33902905604444</v>
+      </c>
+      <c r="R20">
+        <v>192.0512615044</v>
+      </c>
+      <c r="S20">
+        <v>0.009421394507155368</v>
+      </c>
+      <c r="T20">
+        <v>0.009421394507155366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.818383333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.45515</v>
+      </c>
+      <c r="I21">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="J21">
+        <v>0.4404314834212584</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>236.8155566666667</v>
+      </c>
+      <c r="N21">
+        <v>710.44667</v>
+      </c>
+      <c r="O21">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="P21">
+        <v>0.4316759456963613</v>
+      </c>
+      <c r="Q21">
+        <v>430.6214613167222</v>
+      </c>
+      <c r="R21">
+        <v>3875.5931518505</v>
+      </c>
+      <c r="S21">
+        <v>0.190123677120323</v>
+      </c>
+      <c r="T21">
+        <v>0.190123677120323</v>
       </c>
     </row>
   </sheetData>
